--- a/function-point-calculation/Aufwandsdiagramm.xlsx
+++ b/function-point-calculation/Aufwandsdiagramm.xlsx
@@ -118,40 +118,58 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$A$2:$A$3</c:f>
+              <c:f>Tabelle1!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$B$2:$B$3</c:f>
+              <c:f>Tabelle1!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="35711616"/>
-        <c:axId val="35710080"/>
+        <c:axId val="101671680"/>
+        <c:axId val="101673600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="35711616"/>
+        <c:axId val="101671680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -176,12 +194,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="35710080"/>
+        <c:crossAx val="101673600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="35710080"/>
+        <c:axId val="101673600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -207,7 +225,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="35711616"/>
+        <c:crossAx val="101671680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -216,7 +234,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -542,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -572,6 +590,30 @@
       </c>
       <c r="B3">
         <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
